--- a/public/data/profit/profit_table_mauritania.xlsx
+++ b/public/data/profit/profit_table_mauritania.xlsx
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-31.17</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-31.17</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
